--- a/Config/excel/城市.xlsx
+++ b/Config/excel/城市.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="City" sheetId="1" r:id="rId1"/>
+    <sheet name="Citys" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,22 +29,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id#id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name#string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>population#number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>许昌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +66,18 @@
   </si>
   <si>
     <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>population</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +419,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -441,36 +441,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>4</v>
@@ -498,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>

--- a/Config/excel/城市.xlsx
+++ b/Config/excel/城市.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Citys" sheetId="1" r:id="rId1"/>
+    <sheet name="citys" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -419,7 +419,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
